--- a/Admission/FamilyBackground2024.xlsx
+++ b/Admission/FamilyBackground2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>User ID</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>haidee</t>
+  </si>
+  <si>
+    <t>Youngest</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,6 +707,42 @@
       </c>
       <c r="O6"/>
       <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>71564</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Admission/FamilyBackground2024.xlsx
+++ b/Admission/FamilyBackground2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>User ID</t>
   </si>
@@ -68,58 +68,10 @@
     <t>Julie</t>
   </si>
   <si>
-    <t>09610387175</t>
-  </si>
-  <si>
-    <t>Housewife</t>
-  </si>
-  <si>
-    <t>Guardians Name</t>
-  </si>
-  <si>
     <t>09123911333</t>
   </si>
   <si>
     <t>Occupation</t>
-  </si>
-  <si>
-    <t>Danilo Galo</t>
-  </si>
-  <si>
-    <t>09123456789</t>
-  </si>
-  <si>
-    <t>Bernadette Galo</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>guillermo</t>
-  </si>
-  <si>
-    <t>00912345678</t>
-  </si>
-  <si>
-    <t>ofw</t>
-  </si>
-  <si>
-    <t>michelle</t>
-  </si>
-  <si>
-    <t>00987654321</t>
-  </si>
-  <si>
-    <t>house wife</t>
-  </si>
-  <si>
-    <t>haidee</t>
-  </si>
-  <si>
-    <t>Youngest</t>
   </si>
 </sst>
 </file>
@@ -458,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,10 +470,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>31143</v>
+        <v>38710</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -530,11 +482,9 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
         <v>0</v>
       </c>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="s">
         <v>16</v>
@@ -547,202 +497,6 @@
       </c>
       <c r="O2"/>
       <c r="P2"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>21664</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3"/>
-      <c r="P3"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>13416</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>74283</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>67395</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6"/>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>71564</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
